--- a/STE/war/datadocs/template.xlsx
+++ b/STE/war/datadocs/template.xlsx
@@ -7,10 +7,14 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Soportes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="estadosSop">Soportes!$K$21</definedName>
+    <definedName name="tiposSop">Soportes!$K$21</definedName>
+    <definedName name="totalSopEstado">Soportes!$K$21</definedName>
+    <definedName name="totalSopTip">Soportes!$K$21</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -18,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">hola </t>
+    <t>CLIENTE PREMIUM</t>
   </si>
   <si>
-    <t>sddf</t>
+    <t>CLIENTE NO PREMIUM</t>
   </si>
   <si>
-    <t>eddd</t>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -48,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -56,13 +60,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,40 +127,23 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Estado pruebas</c:v>
+            <c:v>Soportes por estado</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$8:$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>hola </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sddf</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>eddd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>[0]!estadosSop</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$10</c:f>
+              <c:f>[0]!totalSopEstado</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -152,24 +175,87 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES_tradnl"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estados por tipo de soporte</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>[0]!tiposSop</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!totalSopTip</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -179,6 +265,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -472,70 +588,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+      <c r="K10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="N10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="31" spans="11:14">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>